--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний возраст)/ПО ЭХЗ ОРПО_LAR (Средний возраст)(01.09.2015 23-59-23).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний возраст)/ПО ЭХЗ ОРПО_LAR (Средний возраст)(01.09.2015 23-59-23).xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,13 +157,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -231,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +442,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -484,22 +485,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>3.5777007150067003E-5</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>3.5777007150067003E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8.9758728529715413E-5</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>8.9758728529715413E-5</v>
       </c>
     </row>
@@ -507,22 +508,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3.5713160195741562E-5</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>3.5713160195741562E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>7.6260354394485673E-5</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>7.6260354394485673E-5</v>
       </c>
     </row>
@@ -530,22 +531,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.9939248002552948E-5</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>2.9939248002552948E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>5.645091539256797E-5</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>5.645091539256797E-5</v>
       </c>
     </row>
@@ -553,22 +554,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.6024720075592598E-5</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>2.6024720075592598E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>4.9837531942837933E-5</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>4.9837531942837933E-5</v>
       </c>
     </row>
@@ -576,22 +577,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.1586318131201249E-5</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>2.1586318131201249E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>3.7046709947324477E-5</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>3.7046709947324477E-5</v>
       </c>
     </row>
@@ -599,22 +600,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.8653490258100391E-5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>1.8653490258100391E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>3.3205223136372191E-5</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>3.3205223136372191E-5</v>
       </c>
     </row>
@@ -622,22 +623,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.5255240927703906E-5</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>1.5255240927703906E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2.5886730774644854E-5</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>2.5886730774644854E-5</v>
       </c>
     </row>
@@ -645,22 +646,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.3198885266232669E-5</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>1.3198885266232669E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2.4511617960348026E-5</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>2.4511617960348026E-5</v>
       </c>
     </row>
@@ -668,22 +669,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>9.2596961890388035E-6</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>9.2596961890388035E-6</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1.3455919742212154E-5</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>1.3455919742212154E-5</v>
       </c>
     </row>
@@ -691,22 +692,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>7.4531182555484755E-6</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>7.4531182555484755E-6</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>1.023907687874793E-5</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>1.023907687874793E-5</v>
       </c>
     </row>
@@ -714,22 +715,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>5.6959998726844752E-6</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>5.6959998726844752E-6</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>5.6959998726844752E-6</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>5.6959998726844752E-6</v>
       </c>
     </row>
@@ -737,35 +738,38 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.3540000000000002E-5</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <v>2.3540000000000002E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>4.4830000000000003E-5</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>4.4830000000000003E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -796,22 +800,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>4.8762083689352836E-5</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
         <v>4.8762083689352836E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>7.7280358079696379E-5</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
         <v>7.7280358079696379E-5</v>
       </c>
     </row>
@@ -819,22 +823,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>4.0457274313143559E-5</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>4.0457274313143559E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>6.0840747100074548E-5</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
         <v>6.0840747100074548E-5</v>
       </c>
     </row>
@@ -842,22 +846,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>3.4920463295593944E-5</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
         <v>3.4920463295593944E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>5.18623449188633E-5</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
         <v>5.18623449188633E-5</v>
       </c>
     </row>
@@ -865,22 +869,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>3.09949477413199E-5</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
         <v>3.09949477413199E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>4.6579094371351048E-5</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>4.6579094371351048E-5</v>
       </c>
     </row>
@@ -888,22 +892,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.7864245307334778E-5</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <v>2.7864245307334778E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>4.1569708383700102E-5</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>4.1569708383700102E-5</v>
       </c>
     </row>
@@ -911,22 +915,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>2.4651499173682137E-5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>2.4651499173682137E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>3.9834779033584473E-5</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>3.9834779033584473E-5</v>
       </c>
     </row>
@@ -934,22 +938,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>2.0577244058213021E-5</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>2.0577244058213021E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>3.1728364447689162E-5</v>
       </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <v>3.1728364447689162E-5</v>
       </c>
     </row>
@@ -957,22 +961,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.4740525444334288E-5</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
         <v>1.4740525444334288E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>2.1629464947458087E-5</v>
       </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <v>2.1629464947458087E-5</v>
       </c>
     </row>
@@ -980,22 +984,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>1.1472630583632136E-5</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
         <v>1.1472630583632136E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>1.5597578025131235E-5</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>1.5597578025131235E-5</v>
       </c>
     </row>
@@ -1003,22 +1007,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1.0888848084218812E-5</v>
       </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>1.0888848084218812E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>9.3454353713542343E-6</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>9.3454353713542343E-6</v>
       </c>
     </row>
@@ -1026,22 +1030,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1049,22 +1053,22 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.6489999999999999E-5</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
         <v>2.6489999999999999E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>4.0370000000000001E-5</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
         <v>4.0370000000000001E-5</v>
       </c>
     </row>
